--- a/biology/Zoologie/Athérure/Athérure.xlsx
+++ b/biology/Zoologie/Athérure/Athérure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ath%C3%A9rure</t>
+          <t>Athérure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atherurus
-Les Athérures (Atherurus) sont un genre de rongeurs de la famille des Hystricidae. On les appelle aussi ces porcs-épics des régions chaudes des  porcs-épics à queue en brosse, par allusion à leur queue terminée par une touffe de poils durs[1].
+Les Athérures (Atherurus) sont un genre de rongeurs de la famille des Hystricidae. On les appelle aussi ces porcs-épics des régions chaudes des  porcs-épics à queue en brosse, par allusion à leur queue terminée par une touffe de poils durs.
 Ce genre a été décrit pour la première fois en 1829 par le zoologiste français Frédéric Cuvier (1773-1838), frère du célèbre naturaliste Georges Cuvier.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ath%C3%A9rure</t>
+          <t>Athérure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce genre comprend les espèces suivantes :
-Selon Mammal Species of the World (version 3, 2005)  (23 mars 2014)[2], ITIS      (23 mars 2014)[3] et Catalogue of Life                                   (23 mars 2014)[4] :
-Atherurus africanus Gray, 1842 — Athérure africain[1],[5]
-Atherurus macrourus (Linnaeus, 1758) — Athérure malais[1],[5] ou Athérure à longue queue[5]</t>
+Selon Mammal Species of the World (version 3, 2005)  (23 mars 2014), ITIS      (23 mars 2014) et Catalogue of Life                                   (23 mars 2014) :
+Atherurus africanus Gray, 1842 — Athérure africain,
+Atherurus macrourus (Linnaeus, 1758) — Athérure malais, ou Athérure à longue queue</t>
         </is>
       </c>
     </row>
